--- a/dummy_variables_tracker.xlsx
+++ b/dummy_variables_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos OD/Old One Drive/Documentos/Github Proyects/Lending-Club-Credit-RIsk-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF22889-2321-4810-8385-2389A9A092A4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D5CC43-7E44-400B-9410-E9B1260DE043}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA0EF98-DB53-4FB4-885C-53E294792A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Original variable</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>grade:F</t>
+  </si>
+  <si>
+    <t>home_ownership</t>
+  </si>
+  <si>
+    <t>home_ownership:OTHER_NONE_RENT_ANY</t>
+  </si>
+  <si>
+    <t>home_ownership:OWN_MORTGAGE</t>
   </si>
 </sst>
 </file>
@@ -215,6 +224,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,13 +530,15 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.5546875" style="7"/>
+    <col min="2" max="2" width="11.5546875" style="7"/>
+    <col min="3" max="3" width="37.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5546875" style="7"/>
     <col min="8" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
@@ -534,7 +549,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -547,7 +564,9 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -560,6 +579,9 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">

--- a/dummy_variables_tracker.xlsx
+++ b/dummy_variables_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos OD/Old One Drive/Documentos/Github Proyects/Lending-Club-Credit-RIsk-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D5CC43-7E44-400B-9410-E9B1260DE043}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE226547-698E-4984-B412-DDC1CD435E55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA0EF98-DB53-4FB4-885C-53E294792A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Original variable</t>
   </si>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t>home_ownership:OWN_MORTGAGE</t>
+  </si>
+  <si>
+    <t>addr_state</t>
+  </si>
+  <si>
+    <t>addr_state:ND_NE_IA_NV_FL_HI_AL</t>
+  </si>
+  <si>
+    <t>addr_state:NM_VA</t>
+  </si>
+  <si>
+    <t>addr_state:OK_TN_MO_LA_MD_NC</t>
+  </si>
+  <si>
+    <t>addr_state:UT_KY_AZ_NJ</t>
+  </si>
+  <si>
+    <t>addr_state:AR_MI_PA_OH_MN</t>
+  </si>
+  <si>
+    <t>addr_state:RI_MA_DE_SD_IN</t>
+  </si>
+  <si>
+    <t>addr_state:GA_WA_OR</t>
+  </si>
+  <si>
+    <t>addr_state:WI_MT</t>
+  </si>
+  <si>
+    <t>addr_state:IL_CT</t>
+  </si>
+  <si>
+    <t>addr_state:KS_SC_CO_VT_AK_MS</t>
+  </si>
+  <si>
+    <t>addr_state:WV_NH_WY_DC_ME_ID</t>
   </si>
 </sst>
 </file>
@@ -180,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8EA91-57EC-41A2-A2B0-E4E6E38EFC0C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +580,8 @@
     <col min="1" max="1" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="7"/>
     <col min="3" max="3" width="37.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.5546875" style="7"/>
+    <col min="4" max="4" width="31.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" style="7"/>
     <col min="8" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
@@ -552,7 +595,9 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -567,7 +612,9 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -582,30 +629,68 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/dummy_variables_tracker.xlsx
+++ b/dummy_variables_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos OD/Old One Drive/Documentos/Github Proyects/Lending-Club-Credit-RIsk-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE226547-698E-4984-B412-DDC1CD435E55}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00CA5E6-51BA-475D-883E-A0D92BA011EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA0EF98-DB53-4FB4-885C-53E294792A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Original variable</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>addr_state:WV_NH_WY_DC_ME_ID</t>
+  </si>
+  <si>
+    <t>addr_state:NY</t>
+  </si>
+  <si>
+    <t>addr_state:CA</t>
+  </si>
+  <si>
+    <t>addr_state:IL_TX</t>
+  </si>
+  <si>
+    <t>verification_status</t>
+  </si>
+  <si>
+    <t>verification_status:Verified</t>
+  </si>
+  <si>
+    <t>verification_status:Source Verified</t>
+  </si>
+  <si>
+    <t>verification_status:Not Verified</t>
   </si>
 </sst>
 </file>
@@ -569,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8EA91-57EC-41A2-A2B0-E4E6E38EFC0C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +602,8 @@
     <col min="2" max="2" width="11.5546875" style="7"/>
     <col min="3" max="3" width="37.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5546875" style="7"/>
+    <col min="5" max="5" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="7"/>
     <col min="8" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
@@ -598,7 +620,9 @@
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
@@ -615,7 +639,9 @@
       <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -632,13 +658,19 @@
       <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -646,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -654,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -662,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,26 +702,41 @@
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/dummy_variables_tracker.xlsx
+++ b/dummy_variables_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos OD/Old One Drive/Documentos/Github Proyects/Lending-Club-Credit-RIsk-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00CA5E6-51BA-475D-883E-A0D92BA011EF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{7B3DDDCE-1034-459F-88FF-F4F9DD054507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDCBC20E-23AE-4A25-95AF-745626038E8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA0EF98-DB53-4FB4-885C-53E294792A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Original variable</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>verification_status:Not Verified</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>purpose:educ__sm_b__wedd__ren_en__mov__house</t>
+  </si>
+  <si>
+    <t>purpose:oth__med__vacation</t>
+  </si>
+  <si>
+    <t>purpose:major_purch__car__home_impr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purpose:credit_card	</t>
+  </si>
+  <si>
+    <t>purpose:debt_consolidation</t>
   </si>
 </sst>
 </file>
@@ -593,7 +611,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +621,8 @@
     <col min="3" max="3" width="37.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" style="7"/>
+    <col min="6" max="6" width="45.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="7"/>
     <col min="8" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
@@ -623,7 +642,9 @@
       <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -642,7 +663,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -661,6 +684,9 @@
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -672,6 +698,9 @@
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
@@ -680,6 +709,9 @@
       <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -688,6 +720,9 @@
       <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -695,6 +730,9 @@
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
